--- a/data/spring-cloud-shop/shop-settlement-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-settlement-model_structure.xlsx
@@ -483,28 +483,37 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>settlementAmount</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
     <t>goodsCartIds</t>
   </si>
   <si>
-    <t>settlementAmount</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
+    <t>couponId</t>
+  </si>
+  <si>
     <t>self</t>
   </si>
   <si>
-    <t>couponId</t>
+    <t>sellerId</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>integral</t>
   </si>
   <si>
     <t>orderAmount</t>
@@ -513,118 +522,109 @@
     <t>deliveryTime</t>
   </si>
   <si>
+    <t>payType</t>
+  </si>
+  <si>
+    <t>addrId</t>
+  </si>
+  <si>
+    <t>payAmount</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
     <t>discountAmount</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>payAmount</t>
-  </si>
-  <si>
-    <t>addrId</t>
-  </si>
-  <si>
-    <t>integral</t>
-  </si>
-  <si>
-    <t>orderType</t>
-  </si>
-  <si>
-    <t>sellerId</t>
-  </si>
-  <si>
     <t>skus</t>
   </si>
   <si>
-    <t>payType</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>skuAmount</t>
+  </si>
+  <si>
     <t>skuImage</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>skuId</t>
   </si>
   <si>
     <t>skuName</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>skuAmount</t>
+    <t>deliveryAmount</t>
+  </si>
+  <si>
+    <t>payTypes</t>
+  </si>
+  <si>
+    <t>coupons</t>
+  </si>
+  <si>
+    <t>addr</t>
   </si>
   <si>
     <t>freeDeliveryAmount</t>
   </si>
   <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>deliveryAmount</t>
-  </si>
-  <si>
-    <t>payTypes</t>
-  </si>
-  <si>
-    <t>coupons</t>
-  </si>
-  <si>
     <t>totalAmount</t>
   </si>
   <si>
     <t>tradeNo</t>
   </si>
   <si>
+    <t>outTradeNo</t>
+  </si>
+  <si>
     <t>tradeType</t>
   </si>
   <si>
-    <t>outTradeNo</t>
-  </si>
-  <si>
     <t>APP_SUBMIT_ORDER</t>
   </si>
   <si>
     <t>INTEGRAL_DEDUCTION</t>
   </si>
   <si>
+    <t>beginTime</t>
+  </si>
+  <si>
     <t>endTime</t>
   </si>
   <si>
+    <t>templateType</t>
+  </si>
+  <si>
+    <t>discountStrength</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>beginTime</t>
-  </si>
-  <si>
-    <t>discountStrength</t>
-  </si>
-  <si>
-    <t>templateName</t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>templateId</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>templateType</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>templateId</t>
+    <t>addrName</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
   <si>
     <t>defaultAddress</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>addrName</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -7013,7 +7013,7 @@
         <v>154</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -7021,13 +7021,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -7041,7 +7041,7 @@
         <v>154</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -7069,7 +7069,7 @@
         <v>154</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -7083,7 +7083,7 @@
         <v>154</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -7091,13 +7091,13 @@
         <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -7105,13 +7105,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -7125,7 +7125,7 @@
         <v>154</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -7139,7 +7139,7 @@
         <v>154</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -7147,13 +7147,13 @@
         <v>35</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -7161,7 +7161,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>154</v>
@@ -7175,13 +7175,13 @@
         <v>35</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -7189,7 +7189,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>154</v>
@@ -7203,13 +7203,13 @@
         <v>35</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -7217,13 +7217,13 @@
         <v>35</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -7231,13 +7231,13 @@
         <v>35</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -7245,7 +7245,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>154</v>
@@ -7259,13 +7259,13 @@
         <v>35</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -7273,13 +7273,13 @@
         <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -7287,13 +7287,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -7301,13 +7301,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
@@ -7321,7 +7321,7 @@
         <v>154</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -7329,13 +7329,13 @@
         <v>73</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -7343,13 +7343,13 @@
         <v>73</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -7357,13 +7357,13 @@
         <v>73</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -7371,13 +7371,13 @@
         <v>73</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -7385,13 +7385,13 @@
         <v>73</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -7405,7 +7405,7 @@
         <v>154</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -7413,13 +7413,13 @@
         <v>85</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -7427,7 +7427,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>154</v>
@@ -7441,13 +7441,13 @@
         <v>85</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -7455,13 +7455,13 @@
         <v>85</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -7469,13 +7469,13 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -7483,13 +7483,13 @@
         <v>85</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -7497,7 +7497,7 @@
         <v>85</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>154</v>
@@ -7511,13 +7511,13 @@
         <v>85</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -7525,13 +7525,13 @@
         <v>85</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40">
@@ -7539,13 +7539,13 @@
         <v>85</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -7553,13 +7553,13 @@
         <v>85</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -7581,13 +7581,13 @@
         <v>98</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
@@ -7629,7 +7629,7 @@
         <v>154</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -7637,7 +7637,7 @@
         <v>98</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>154</v>
@@ -7651,13 +7651,13 @@
         <v>98</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -7665,13 +7665,13 @@
         <v>70</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -7679,13 +7679,13 @@
         <v>70</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -7721,13 +7721,13 @@
         <v>114</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54">
@@ -7735,13 +7735,13 @@
         <v>114</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -7749,13 +7749,13 @@
         <v>114</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -7777,13 +7777,13 @@
         <v>117</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -7791,13 +7791,13 @@
         <v>117</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -7805,13 +7805,13 @@
         <v>117</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -7839,7 +7839,7 @@
         <v>154</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
@@ -7847,7 +7847,7 @@
         <v>119</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>154</v>
@@ -7861,13 +7861,13 @@
         <v>119</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64">
@@ -7875,13 +7875,13 @@
         <v>119</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -7889,7 +7889,7 @@
         <v>119</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>154</v>
@@ -7923,7 +7923,7 @@
         <v>154</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -7937,7 +7937,7 @@
         <v>154</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -7945,13 +7945,13 @@
         <v>119</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -7959,13 +7959,13 @@
         <v>119</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -7979,7 +7979,7 @@
         <v>154</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -7987,13 +7987,13 @@
         <v>91</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>48</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73">
@@ -8001,13 +8001,13 @@
         <v>91</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -8015,13 +8015,13 @@
         <v>91</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -8029,13 +8029,13 @@
         <v>91</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>154</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -8049,7 +8049,7 @@
         <v>154</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
